--- a/src/excels/meningeal/update_mako/top_genes_cluster_0.4.xlsx
+++ b/src/excels/meningeal/update_mako/top_genes_cluster_0.4.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MeV.1.4.1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MeV.1.4.11" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="MeV.1.4.12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MeV.1.4.0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MeV.1.4.1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MeV.1.4.11" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="MeV.1.4.13" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="MeV.1.4.15" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="MeV.1.4.2" sheetId="6" state="visible" r:id="rId6"/>
@@ -482,96 +482,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Vwf</t>
+          <t>Col25a1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.68630599975586</v>
+        <v>20.66776084899902</v>
       </c>
       <c r="C2" t="n">
-        <v>5.773325443267822</v>
+        <v>5.305713176727295</v>
       </c>
       <c r="D2" t="n">
-        <v>1.56822948377045e-130</v>
+        <v>7.062378020534086e-91</v>
       </c>
       <c r="E2" t="n">
-        <v>0.910394265232975</v>
+        <v>0.9289340101522843</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Gm5127</t>
+          <t>Slc4a10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.11382293701172</v>
+        <v>21.53486442565918</v>
       </c>
       <c r="C3" t="n">
-        <v>5.625568389892578</v>
+        <v>4.441579341888428</v>
       </c>
       <c r="D3" t="n">
-        <v>1.772707859910938e-95</v>
+        <v>1.534353192307906e-98</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7885304659498208</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Slc47a1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.17012786865234</v>
+        <v>19.91127586364746</v>
       </c>
       <c r="C4" t="n">
-        <v>4.870611190795898</v>
+        <v>4.258723258972168</v>
       </c>
       <c r="D4" t="n">
-        <v>4.161043435978143e-87</v>
+        <v>2.263781599608806e-84</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.9441624365482234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Ptprb</t>
+          <t>Slc26a7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.30417060852051</v>
+        <v>17.05160903930664</v>
       </c>
       <c r="C5" t="n">
-        <v>4.537421226501465</v>
+        <v>4.157470703125</v>
       </c>
       <c r="D5" t="n">
-        <v>9.254136655594219e-127</v>
+        <v>5.467117161629769e-62</v>
       </c>
       <c r="E5" t="n">
-        <v>0.942652329749104</v>
+        <v>0.7868020304568528</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Mecom</t>
+          <t>Rspo3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.45771980285645</v>
+        <v>14.85166931152344</v>
       </c>
       <c r="C6" t="n">
-        <v>4.508071422576904</v>
+        <v>3.940398931503296</v>
       </c>
       <c r="D6" t="n">
-        <v>2.90203174931901e-128</v>
+        <v>5.958172003357712e-47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.974910394265233</v>
+        <v>0.6903553299492385</v>
       </c>
     </row>
   </sheetData>
@@ -1978,96 +1978,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Trpm3</t>
+          <t>Vwf</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.13285636901855</v>
+        <v>24.68630599975586</v>
       </c>
       <c r="C2" t="n">
-        <v>3.845197677612305</v>
+        <v>5.773325443267822</v>
       </c>
       <c r="D2" t="n">
-        <v>1.566760433650805e-54</v>
+        <v>1.56822948377045e-130</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.910394265232975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ranbp3l</t>
+          <t>Gm5127</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.78170013427734</v>
+        <v>21.11382293701172</v>
       </c>
       <c r="C3" t="n">
-        <v>3.163457155227661</v>
+        <v>5.625568389892578</v>
       </c>
       <c r="D3" t="n">
-        <v>6.943017663513871e-59</v>
+        <v>1.772707859910938e-95</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.7885304659498208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ptgds</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.05057048797607</v>
+        <v>20.17012786865234</v>
       </c>
       <c r="C4" t="n">
-        <v>2.908675193786621</v>
+        <v>4.870611190795898</v>
       </c>
       <c r="D4" t="n">
-        <v>3.194319174933153e-41</v>
+        <v>4.161043435978143e-87</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.7634408602150538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Nadk2</t>
+          <t>Ptprb</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.76703453063965</v>
+        <v>24.30417060852051</v>
       </c>
       <c r="C5" t="n">
-        <v>2.602757930755615</v>
+        <v>4.537421226501465</v>
       </c>
       <c r="D5" t="n">
-        <v>7.480118312694928e-34</v>
+        <v>9.254136655594219e-127</v>
       </c>
       <c r="E5" t="n">
-        <v>0.75</v>
+        <v>0.942652329749104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Slc6a20a</t>
+          <t>Mecom</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.18364715576172</v>
+        <v>24.45771980285645</v>
       </c>
       <c r="C6" t="n">
-        <v>2.439021587371826</v>
+        <v>4.508071422576904</v>
       </c>
       <c r="D6" t="n">
-        <v>6.044269318625661e-42</v>
+        <v>2.90203174931901e-128</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8920454545454546</v>
+        <v>0.974910394265233</v>
       </c>
     </row>
   </sheetData>
@@ -2794,77 +2794,77 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Col25a1</t>
+          <t>Slc47a1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.66134834289551</v>
+        <v>19.10455894470215</v>
       </c>
       <c r="C2" t="n">
-        <v>5.878852367401123</v>
+        <v>4.839625358581543</v>
       </c>
       <c r="D2" t="n">
-        <v>1.420048829910439e-164</v>
+        <v>2.418014993191127e-77</v>
       </c>
       <c r="E2" t="n">
-        <v>0.936231884057971</v>
+        <v>0.9932432432432432</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Slc26a7</t>
+          <t>Slc4a10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.93132591247559</v>
+        <v>19.15204620361328</v>
       </c>
       <c r="C3" t="n">
-        <v>5.602328300476074</v>
+        <v>4.671919822692871</v>
       </c>
       <c r="D3" t="n">
-        <v>6.469061535497088e-134</v>
+        <v>1.945011495544064e-77</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8405797101449275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Slc47a1</t>
+          <t>Slc26a7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.25019264221191</v>
+        <v>17.45644760131836</v>
       </c>
       <c r="C4" t="n">
-        <v>5.521671772003174</v>
+        <v>4.462526798248291</v>
       </c>
       <c r="D4" t="n">
-        <v>1.479414945501835e-171</v>
+        <v>1.071115047625685e-64</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9652173913043478</v>
+        <v>0.9121621621621622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Slc4a10</t>
+          <t>Col25a1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.53586769104004</v>
+        <v>17.36410713195801</v>
       </c>
       <c r="C5" t="n">
-        <v>5.095089912414551</v>
+        <v>4.447568416595459</v>
       </c>
       <c r="D5" t="n">
-        <v>2.084818107050819e-187</v>
+        <v>4.606680652411389e-64</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9459459459459459</v>
       </c>
     </row>
     <row r="6">
@@ -2874,16 +2874,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.4282341003418</v>
+        <v>14.47931385040283</v>
       </c>
       <c r="C6" t="n">
-        <v>4.78768253326416</v>
+        <v>4.261595726013184</v>
       </c>
       <c r="D6" t="n">
-        <v>4.179497075278108e-73</v>
+        <v>1.801050314059429e-44</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6318840579710145</v>
+        <v>0.7567567567567568</v>
       </c>
     </row>
   </sheetData>
@@ -2930,96 +2930,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Kng2</t>
+          <t>Trpm3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.80870246887207</v>
+        <v>16.13285636901855</v>
       </c>
       <c r="C2" t="n">
-        <v>5.077123641967773</v>
+        <v>3.845197677612305</v>
       </c>
       <c r="D2" t="n">
-        <v>3.655288638893611e-06</v>
+        <v>1.566760433650805e-54</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5106382978723404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ror2</t>
+          <t>Ranbp3l</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.551877021789551</v>
+        <v>16.78170013427734</v>
       </c>
       <c r="C3" t="n">
-        <v>4.477007865905762</v>
+        <v>3.163457155227661</v>
       </c>
       <c r="D3" t="n">
-        <v>1.281019797189107e-10</v>
+        <v>6.943017663513871e-59</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6808510638297872</v>
+        <v>0.9772727272727273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Col15a1</t>
+          <t>Ptgds</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.307950973510742</v>
+        <v>14.05057048797607</v>
       </c>
       <c r="C4" t="n">
-        <v>3.963915824890137</v>
+        <v>2.908675193786621</v>
       </c>
       <c r="D4" t="n">
-        <v>2.686286182163059e-07</v>
+        <v>3.194319174933153e-41</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5957446808510638</v>
+        <v>0.8352272727272727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fap</t>
+          <t>Nadk2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.08295202255249</v>
+        <v>12.76703453063965</v>
       </c>
       <c r="C5" t="n">
-        <v>3.795554637908936</v>
+        <v>2.602757930755615</v>
       </c>
       <c r="D5" t="n">
-        <v>8.503793454222606e-07</v>
+        <v>7.480118312694928e-34</v>
       </c>
       <c r="E5" t="n">
-        <v>0.574468085106383</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Runx1</t>
+          <t>Slc6a20a</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.502959251403809</v>
+        <v>14.18364715576172</v>
       </c>
       <c r="C6" t="n">
-        <v>3.742849588394165</v>
+        <v>2.439021587371826</v>
       </c>
       <c r="D6" t="n">
-        <v>8.663468150463155e-08</v>
+        <v>6.044269318625661e-42</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.8920454545454546</v>
       </c>
     </row>
   </sheetData>
